--- a/data/trans_orig/cron_index-Clase-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Clase-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>0.4995706556520521</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.739611469374671</v>
+        <v>0.7396114693746708</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4347974836568888</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3664229798959896</v>
+        <v>0.3617031921066795</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4053087096904941</v>
+        <v>0.4045978292369672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4408226459852799</v>
+        <v>0.450232466634051</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7925756387299612</v>
+        <v>0.7893135552817792</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3381698465601549</v>
+        <v>0.3320310886289905</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3171878202147488</v>
+        <v>0.3247150836882268</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4069470304152356</v>
+        <v>0.4032867682214416</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6432936515004442</v>
+        <v>0.6536242792983167</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3821536333925667</v>
+        <v>0.3732131524253317</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3933598694487008</v>
+        <v>0.3908762195823107</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4505617109588331</v>
+        <v>0.4538749931746239</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7565944669382916</v>
+        <v>0.7496063259473167</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5315829008464341</v>
+        <v>0.5360954646924874</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5798294769070992</v>
+        <v>0.588315818184294</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6445573773975345</v>
+        <v>0.6491765371137203</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.006404362716979</v>
+        <v>0.99998316115065</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5352941620240562</v>
+        <v>0.5211558801422889</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5508816603399593</v>
+        <v>0.5290145291842633</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6246761019608711</v>
+        <v>0.6350853631298838</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8292233571806424</v>
+        <v>0.8350290889525575</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5068466887296</v>
+        <v>0.5020545568214251</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5319911051855057</v>
+        <v>0.5243340206731633</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5965340000424684</v>
+        <v>0.603817303498317</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8982580970771272</v>
+        <v>0.8870430569403088</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.5621807377358007</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8816708913491914</v>
+        <v>0.8816708913491913</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3795726571012161</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3638653626965027</v>
+        <v>0.3633016463257639</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3871502820632826</v>
+        <v>0.3909394033267668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.470207155756617</v>
+        <v>0.4707116193599323</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7678012964334723</v>
+        <v>0.7680734839925779</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3094868687777468</v>
+        <v>0.299883050739023</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3516454827803703</v>
+        <v>0.346103146048524</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3365139818759815</v>
+        <v>0.3380604826873078</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6021638571723398</v>
+        <v>0.6040633663536951</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3531754752864386</v>
+        <v>0.3585401115366678</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3937451523562905</v>
+        <v>0.3961973890736329</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4266264527058254</v>
+        <v>0.4239694421853604</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.718834515532304</v>
+        <v>0.7269937353277967</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5454334065920916</v>
+        <v>0.5512106202451853</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5782185640915671</v>
+        <v>0.5815874013473068</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.671410515553025</v>
+        <v>0.6776035664294175</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9951420600615395</v>
+        <v>0.9976627100876145</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4827096588913742</v>
+        <v>0.4939165763047988</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5555173239355959</v>
+        <v>0.5570998536632779</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5166019272237428</v>
+        <v>0.5235897946333605</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7895892490643719</v>
+        <v>0.7941510565851841</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4863642404989326</v>
+        <v>0.4912408966552055</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5387166760852685</v>
+        <v>0.5367580199941877</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.568236089706505</v>
+        <v>0.5616024112908018</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8603344458677519</v>
+        <v>0.8657971685874987</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4436430015719585</v>
+        <v>0.4510512184536385</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7232530180133963</v>
+        <v>0.7208202231704456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5946147322014779</v>
+        <v>0.5937970898891727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9189991894835746</v>
+        <v>0.9287541885217553</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5007273831007232</v>
+        <v>0.5009969374727516</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6326718482948603</v>
+        <v>0.6348008348201447</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.679993861320576</v>
+        <v>0.6916677172217023</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.00518994935863</v>
+        <v>1.014406117851089</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4780850840901015</v>
+        <v>0.4869854417381287</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7244959709816008</v>
+        <v>0.7300688742294816</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6456799641419182</v>
+        <v>0.6425418059771539</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9821351396239367</v>
+        <v>0.9855916274750003</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6103921796333466</v>
+        <v>0.6165938572740447</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.957854138895485</v>
+        <v>0.9340485791631087</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7775928549317714</v>
+        <v>0.7729733081351771</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.219800411841558</v>
+        <v>1.223234612073818</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8512775197563327</v>
+        <v>0.8375661598283254</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9167648589598759</v>
+        <v>0.9063986481308016</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.088221529692253</v>
+        <v>1.102121365605877</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.364466880709716</v>
+        <v>1.362985170899409</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6304481795991976</v>
+        <v>0.6355528867176835</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8983103734880192</v>
+        <v>0.903112645013067</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8119872949329023</v>
+        <v>0.808608117898284</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>1.212036926379066</v>
+        <v>1.220270247644027</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.6061715070395989</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9052895714726203</v>
+        <v>0.9052895714726205</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.579389150460743</v>
+        <v>0.5777296331431274</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6399205353941986</v>
+        <v>0.6402252965959006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6209789321127405</v>
+        <v>0.6186440108559286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9091442495296016</v>
+        <v>0.9043798997161637</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5128078141849529</v>
+        <v>0.5107723196479488</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4647758298916765</v>
+        <v>0.4641543645648974</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4339517473690816</v>
+        <v>0.436430309380092</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7252213159231005</v>
+        <v>0.7230837425734338</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5697492112608528</v>
+        <v>0.5751740744379493</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5862221885862392</v>
+        <v>0.5879947138514864</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.560649279581011</v>
+        <v>0.5577230356566447</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8526350498549833</v>
+        <v>0.8447973852200003</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6968106503540669</v>
+        <v>0.6963673767988279</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.787692928297309</v>
+        <v>0.7944827513764837</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7553531383938313</v>
+        <v>0.7534965077866366</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.080742177291163</v>
+        <v>1.080378959636456</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6709099585339138</v>
+        <v>0.6731008455473589</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6064834941843018</v>
+        <v>0.5939827011740796</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5789835907894989</v>
+        <v>0.5787045933872028</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8634400296740466</v>
+        <v>0.8646571443193573</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6642303942938504</v>
+        <v>0.6671629309610084</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6920244268549544</v>
+        <v>0.6973713940830544</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6556925289317387</v>
+        <v>0.6542246029766395</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9719175668110533</v>
+        <v>0.9723599457433327</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.7272585912738029</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9384663935759131</v>
+        <v>0.938466393575913</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7212547204882628</v>
@@ -1237,7 +1237,7 @@
         <v>0.8060459750439953</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>1.156861931370664</v>
+        <v>1.156861931370663</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4143061970602273</v>
+        <v>0.4134426728962794</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5340252995025953</v>
+        <v>0.5283395390339156</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6352973523736035</v>
+        <v>0.6257016289230994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8404311765599377</v>
+        <v>0.8357850472139422</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6273685863633975</v>
+        <v>0.6319062578484024</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8573514479197324</v>
+        <v>0.8624834675487635</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.789770916256069</v>
+        <v>0.7865910017644634</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.214450605114509</v>
+        <v>1.206325663742911</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5761600304703568</v>
+        <v>0.5773476586585556</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7507516352519028</v>
+        <v>0.7438175790590218</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7419514996895421</v>
+        <v>0.737178363581617</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.082185581314161</v>
+        <v>1.08851471934656</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6286064055160057</v>
+        <v>0.6268507571019972</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7392104466781712</v>
+        <v>0.7406121389627032</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8316606643002133</v>
+        <v>0.8127721403144919</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.072331917248264</v>
+        <v>1.064820062366315</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8217436166333677</v>
+        <v>0.8306328395923348</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.057254677576173</v>
+        <v>1.057800730481446</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9727435450838549</v>
+        <v>0.9786636516418245</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.399207159174497</v>
+        <v>1.397861960399334</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.717453329518231</v>
+        <v>0.7191158862993924</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.893048997730794</v>
+        <v>0.8951786824247083</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8700297659828016</v>
+        <v>0.8738072145627552</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.240496297189063</v>
+        <v>1.240710156927409</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>0.8758779861782428</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>1.025930356268736</v>
+        <v>1.025930356268735</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0770394513629713</v>
+        <v>0.07823519641369923</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1446025717619049</v>
+        <v>0.1423099913375253</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1430311248462036</v>
+        <v>0.1417573985577306</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1846606546002175</v>
+        <v>0.1927789507288739</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.908879066630442</v>
+        <v>0.9052863917588997</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.080653228340544</v>
+        <v>1.0725716166523</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9747360245054986</v>
+        <v>0.9724626514847733</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>1.133142730400771</v>
+        <v>1.135771832003515</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7488296146191785</v>
+        <v>0.7458174040850747</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9013355951691877</v>
+        <v>0.8987511457045589</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8049015640263451</v>
+        <v>0.8050095629050804</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.9374986259948708</v>
+        <v>0.9352716134528527</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1631118364144613</v>
+        <v>0.1653349479856105</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3084355777969223</v>
+        <v>0.3078318134886401</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2754438986830389</v>
+        <v>0.2683124574248072</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5200554080352431</v>
+        <v>0.5178284644014673</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>1.052611517419568</v>
+        <v>1.047675164490032</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>1.247245381245828</v>
+        <v>1.253082513470861</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.14813852513924</v>
+        <v>1.14464352999633</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>1.331202029103402</v>
+        <v>1.337895272031232</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8709629298460037</v>
+        <v>0.8727734576008892</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1.052286817947649</v>
+        <v>1.053902411209945</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9562990972641308</v>
+        <v>0.9507499062328423</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>1.112755258067312</v>
+        <v>1.11688313953191</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>0.6888736547645321</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.9638439749266738</v>
+        <v>0.9638439749266736</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4743305471245784</v>
+        <v>0.4769513689321255</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5819611631189444</v>
+        <v>0.5847408601225265</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5812652758631895</v>
+        <v>0.5816302684307865</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8635506622355663</v>
+        <v>0.8587670560445997</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6791936859932918</v>
+        <v>0.6796623124679603</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7745943662300239</v>
+        <v>0.7697553959629528</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.716160129658122</v>
+        <v>0.7176850048455109</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9714693246805376</v>
+        <v>0.973373225912892</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.589996548639685</v>
+        <v>0.5910469070139606</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6933368002926203</v>
+        <v>0.6915206806748422</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.659889655982587</v>
+        <v>0.6603050571134296</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.9320230481015068</v>
+        <v>0.9342458006659732</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5420342859461854</v>
+        <v>0.5397564928240117</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6608767497160307</v>
+        <v>0.6647163471137782</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6532517973569684</v>
+        <v>0.6569717948549094</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9573476260410204</v>
+        <v>0.9599602627308944</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7572487187524413</v>
+        <v>0.7568113590427394</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8574837882316074</v>
+        <v>0.859915590256308</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7998171299876822</v>
+        <v>0.8058310647305476</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.051398636116649</v>
+        <v>1.053368722348839</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6439678993392839</v>
+        <v>0.6408357716114758</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7521609360806659</v>
+        <v>0.7506835937848718</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7168892089240978</v>
+        <v>0.7161886452380075</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9998225183819387</v>
+        <v>0.9973900273500588</v>
       </c>
     </row>
     <row r="25">
